--- a/biology/Zoologie/Ergot_(oiseau)/Ergot_(oiseau).xlsx
+++ b/biology/Zoologie/Ergot_(oiseau)/Ergot_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un ergot est un éperon sur les pattes, derrière le tarse sur le métacarpe que portent les Galloanserae, bien qu'il soit plus uniformément présent chez les galliformes. Ce tégument est en général plus important chez les mâles. Ils croissent tout le long de la vie de l'animal si bien que cela permet de déterminer son âge.
 Chez le Coq doré les ergots sont très longs et très pointus, alors qu'ils sont obtus chez le dindon. La Merganette des torrents et les Kamichi en possèdent.
